--- a/data/trans_dic/P56$familiar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,63</t>
+          <t>0,0; 42,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,66</t>
+          <t>9,16; 60,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 38,01</t>
+          <t>5,31; 42,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,31; 78,58</t>
+          <t>49,56; 78,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,86</t>
+          <t>0,0; 41,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,46; 46,83</t>
+          <t>18,12; 46,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,81; 52,27</t>
+          <t>21,21; 53,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,13; 63,37</t>
+          <t>48,03; 63,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 30,62</t>
+          <t>3,85; 29,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 45,46</t>
+          <t>20,26; 44,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 44,22</t>
+          <t>19,83; 45,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,49; 65,47</t>
+          <t>51,38; 65,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 47,76</t>
+          <t>6,73; 47,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 44,67</t>
+          <t>13,02; 44,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 53,67</t>
+          <t>14,19; 54,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,96; 77,28</t>
+          <t>48,81; 78,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 50,37</t>
+          <t>13,4; 52,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,38; 45,98</t>
+          <t>23,91; 47,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 27,81</t>
+          <t>3,12; 26,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,8; 69,54</t>
+          <t>53,26; 69,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 41,38</t>
+          <t>13,93; 43,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,62; 41,94</t>
+          <t>22,72; 42,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 30,98</t>
+          <t>10,33; 31,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,06; 69,66</t>
+          <t>54,66; 69,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,65</t>
+          <t>0,0; 62,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 55,12</t>
+          <t>6,47; 52,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,74</t>
+          <t>0,0; 22,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,48; 59,87</t>
+          <t>22,03; 60,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 47,55</t>
+          <t>6,59; 49,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 36,44</t>
+          <t>10,04; 34,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 40,37</t>
+          <t>7,59; 38,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,81; 68,05</t>
+          <t>44,8; 66,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 41,98</t>
+          <t>10,22; 43,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 35,33</t>
+          <t>11,33; 33,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 30,1</t>
+          <t>6,88; 28,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,88; 62,06</t>
+          <t>40,57; 60,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 50,01</t>
+          <t>6,28; 50,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 46,9</t>
+          <t>8,67; 49,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,67</t>
+          <t>0,0; 32,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,62; 48,65</t>
+          <t>22,61; 48,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,59</t>
+          <t>0,0; 23,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 44,24</t>
+          <t>18,18; 43,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 45,3</t>
+          <t>16,31; 44,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,58; 60,16</t>
+          <t>43,07; 59,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 27,48</t>
+          <t>5,36; 25,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 40,75</t>
+          <t>18,42; 39,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 41,19</t>
+          <t>14,86; 38,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,59; 54,04</t>
+          <t>40,23; 54,07</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,73; 33,45</t>
+          <t>11,14; 32,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,48; 38,19</t>
+          <t>16,3; 37,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 26,4</t>
+          <t>9,78; 26,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,63; 57,73</t>
+          <t>42,17; 57,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,32; 27,37</t>
+          <t>11,23; 27,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,77; 36,48</t>
+          <t>23,79; 37,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 32,5</t>
+          <t>19,0; 33,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,55; 60,59</t>
+          <t>51,84; 60,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,78; 26,39</t>
+          <t>13,33; 26,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,07</t>
+          <t>23,59; 34,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 29,37</t>
+          <t>17,99; 29,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,43; 58,63</t>
+          <t>50,26; 57,99</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1825</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16410</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14635</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14233</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34509</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17747</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17738</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50919</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5522</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>970; 6357</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1007; 8040</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12438; 19574</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6747</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8353; 21294</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8446; 21172</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29705; 39188</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1134; 8838</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11487; 25286</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11661; 26622</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44673; 57341</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8994</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6118</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15531</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8224</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22341</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4884</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41548</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11300</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31336</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11002</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>57079</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1007; 7148</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4217; 14316</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2768; 10692</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11924; 19074</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3668; 14452</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15702; 31200</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1280; 11057</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35638; 46784</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5900; 18298</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22282; 42060</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6258; 19191</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>49925; 63867</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7959</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8560</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7436</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23763</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5605</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11693</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8305</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31722</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4329</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>904; 7324</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3944</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4471; 12240</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1163; 8744</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4238; 14426</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2659; 13561</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18916; 28272</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2513; 10664</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6366; 18927</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3619; 15230</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25367; 37725</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3316</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11253</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15398</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16854</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41015</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5844</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20448</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>18676</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52267</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>833; 6662</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1868; 10636</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5272</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7290; 15575</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7476</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9319; 22551</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9108; 24849</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>34476; 47711</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2436; 11753</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13415; 28973</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10688; 27455</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45179; 60719</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9866</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20290</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>51152</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17006</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>60934</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>43407</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>140834</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26873</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>81224</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>55722</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>191987</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5379; 15524</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12799; 29383</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7052; 19077</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>43036; 58931</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10506; 25341</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>48827; 76005</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>32633; 57110</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>130128; 152263</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18898; 37160</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>66930; 98422</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>43864; 72276</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>177458; 204769</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>